--- a/dokumentation/excel/rumblerace-formel-sprit.xlsx
+++ b/dokumentation/excel/rumblerace-formel-sprit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d9a352975102377/rumblerace/dokumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d9a352975102377/rumblerace/dokumentation/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D33F0E-13DF-4B6A-9D82-0E32B4C44FFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
